--- a/examples/fetch-url/artifact/script/FetchDownloadLink.xlsx
+++ b/examples/fetch-url/artifact/script/FetchDownloadLink.xlsx
@@ -21,13 +21,13 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -48,7 +48,7 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2301" uniqueCount="569">
   <si>
     <t>description</t>
   </si>
@@ -1778,13 +1778,22 @@
   <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2063,8 +2072,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="85">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2389,8 +2499,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="67">
+  <borders count="99">
     <border>
       <left/>
       <right/>
@@ -3080,6 +3343,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3087,7 +3676,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="85">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3264,52 +3853,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="33" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="36" fontId="29" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="39" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="42" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="42" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="33" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="48" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="48" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="39" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="39" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="60" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="63" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="66" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="69" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="75" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="66" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="78" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="78" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3664,7 +4301,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4130,6 +4767,9 @@
       <c r="I6" t="s">
         <v>441</v>
       </c>
+      <c r="J6" t="s">
+        <v>566</v>
+      </c>
       <c r="K6" t="s">
         <v>343</v>
       </c>
@@ -4646,7 +5286,7 @@
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>563</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -4666,7 +5306,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
         <v>291</v>
@@ -4686,7 +5326,7 @@
         <v>389</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>251</v>
       </c>
       <c r="H21" t="s">
         <v>292</v>
@@ -4706,7 +5346,7 @@
         <v>405</v>
       </c>
       <c r="F22" t="s">
-        <v>251</v>
+        <v>530</v>
       </c>
       <c r="H22" t="s">
         <v>293</v>
@@ -4726,7 +5366,7 @@
         <v>406</v>
       </c>
       <c r="F23" t="s">
-        <v>530</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
         <v>294</v>
@@ -4746,7 +5386,7 @@
         <v>350</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>316</v>
       </c>
       <c r="H24" t="s">
         <v>285</v>
@@ -4766,7 +5406,7 @@
         <v>390</v>
       </c>
       <c r="F25" t="s">
-        <v>316</v>
+        <v>61</v>
       </c>
       <c r="H25" t="s">
         <v>274</v>
@@ -4786,7 +5426,7 @@
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>442</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
@@ -4806,7 +5446,7 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>442</v>
+        <v>221</v>
       </c>
       <c r="H27" t="s">
         <v>277</v>
@@ -4826,7 +5466,7 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H28" t="s">
         <v>261</v>
@@ -4843,7 +5483,7 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>461</v>
       </c>
       <c r="H29" t="s">
         <v>278</v>
@@ -4860,7 +5500,7 @@
         <v>407</v>
       </c>
       <c r="F30" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H30" t="s">
         <v>279</v>
@@ -4877,7 +5517,7 @@
         <v>223</v>
       </c>
       <c r="F31" t="s">
-        <v>462</v>
+        <v>409</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
@@ -4888,7 +5528,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>409</v>
+        <v>62</v>
       </c>
       <c r="H32" t="s">
         <v>270</v>
@@ -4899,7 +5539,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H33" t="s">
         <v>280</v>
@@ -4910,7 +5550,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H34" t="s">
         <v>502</v>
@@ -4921,7 +5561,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
         <v>255</v>
@@ -4932,7 +5572,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H36" t="s">
         <v>325</v>
@@ -4943,7 +5583,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
         <v>302</v>
@@ -4954,7 +5594,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H38" t="s">
         <v>256</v>
@@ -4965,7 +5605,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H39" t="s">
         <v>303</v>
@@ -4975,9 +5615,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>69</v>
-      </c>
       <c r="H40" t="s">
         <v>262</v>
       </c>
@@ -5451,186 +6088,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>436</v>
+        <v>567</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>200</v>
+        <v>568</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>201</v>
+        <v>436</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>491</v>
+        <v>219</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>542</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>145</v>
+        <v>542</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>376</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>146</v>
+        <v>516</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>147</v>
+        <v>376</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>437</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>536</v>
+        <v>437</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>161</v>
+        <v>536</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>166</v>
       </c>
     </row>

--- a/examples/fetch-url/artifact/script/FetchDownloadLink.xlsx
+++ b/examples/fetch-url/artifact/script/FetchDownloadLink.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2301" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2866" uniqueCount="569">
   <si>
     <t>description</t>
   </si>
@@ -1793,7 +1793,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="75" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2173,8 +2173,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2652,8 +2753,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="99">
+  <borders count="131">
     <border>
       <left/>
       <right/>
@@ -3669,6 +3923,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3676,7 +4256,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="101">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3901,52 +4481,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="60" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="60" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="63" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="63" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="66" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="66" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="69" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="69" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="49" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="75" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="75" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="66" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="66" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="78" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="78" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/examples/fetch-url/artifact/script/FetchDownloadLink.xlsx
+++ b/examples/fetch-url/artifact/script/FetchDownloadLink.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2866" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3431" uniqueCount="569">
   <si>
     <t>description</t>
   </si>
@@ -1793,7 +1793,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="75" x14ac:knownFonts="1">
+  <fonts count="91" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2274,8 +2274,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2906,8 +3007,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="131">
+  <borders count="163">
     <border>
       <left/>
       <right/>
@@ -4249,6 +4503,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4256,7 +4836,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="117">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4529,52 +5109,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="87" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="90" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="93" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="118" fillId="96" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="102" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="93" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
